--- a/Results_Table.xlsx
+++ b/Results_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saamerkki\PycharmProjects\data_analytics_ws23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander/Desktop/projects/data_analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{420E1289-882A-48DD-8673-397E2CB89CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04320FC5-955D-0945-8B89-0E5F6CD0A08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3707A820-B472-4E39-B41A-A4322A096A59}"/>
+    <workbookView xWindow="13160" yWindow="3740" windowWidth="23260" windowHeight="12460" xr2:uid="{3707A820-B472-4E39-B41A-A4322A096A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Dataset</t>
   </si>
@@ -105,6 +104,24 @@
   </si>
   <si>
     <t>1.23</t>
+  </si>
+  <si>
+    <t>1.49</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.17</t>
   </si>
 </sst>
 </file>
@@ -281,14 +298,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -312,41 +328,14 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -354,9 +343,36 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -377,7 +393,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -676,181 +692,198 @@
   <dimension ref="C3:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:E15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="1"/>
-    <col min="3" max="3" width="24.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5" style="1"/>
+    <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5546875" style="1"/>
+    <col min="8" max="8" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="3:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="12" t="s">
+    <row r="3" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="18" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="5" t="s">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="5" t="s">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="8" t="s">
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
+      <c r="D10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="3:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="12" t="s">
+    <row r="13" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="3:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="18" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="11"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="24" t="s">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="10"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="24" t="s">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="24" t="s">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="25" t="s">
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -860,5 +893,6 @@
     <mergeCell ref="C14:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Results_Table.xlsx
+++ b/Results_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander/Desktop/projects/data_analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04320FC5-955D-0945-8B89-0E5F6CD0A08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CFD58C-DBA5-0843-A94F-559957C976D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="3740" windowWidth="23260" windowHeight="12460" xr2:uid="{3707A820-B472-4E39-B41A-A4322A096A59}"/>
+    <workbookView xWindow="10340" yWindow="3740" windowWidth="23260" windowHeight="12460" xr2:uid="{3707A820-B472-4E39-B41A-A4322A096A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -692,7 +692,7 @@
   <dimension ref="C3:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
